--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.65449250730528</v>
+        <v>2.835473666666667</v>
       </c>
       <c r="H2">
-        <v>2.65449250730528</v>
+        <v>8.506421</v>
       </c>
       <c r="I2">
-        <v>0.11786302944177</v>
+        <v>0.1177775131860914</v>
       </c>
       <c r="J2">
-        <v>0.11786302944177</v>
+        <v>0.1254491357467524</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.793539277960625</v>
+        <v>0.9227576666666666</v>
       </c>
       <c r="N2">
-        <v>0.793539277960625</v>
+        <v>2.768273</v>
       </c>
       <c r="O2">
-        <v>0.15322948222233</v>
+        <v>0.1357628664561569</v>
       </c>
       <c r="P2">
-        <v>0.15322948222233</v>
+        <v>0.1401485205056351</v>
       </c>
       <c r="Q2">
-        <v>2.106444067598921</v>
+        <v>2.616455064548111</v>
       </c>
       <c r="R2">
-        <v>2.106444067598921</v>
+        <v>23.548095580933</v>
       </c>
       <c r="S2">
-        <v>0.01806009097451764</v>
+        <v>0.01598981279422159</v>
       </c>
       <c r="T2">
-        <v>0.01806009097451764</v>
+        <v>0.01758151077361794</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.65449250730528</v>
+        <v>2.835473666666667</v>
       </c>
       <c r="H3">
-        <v>2.65449250730528</v>
+        <v>8.506421</v>
       </c>
       <c r="I3">
-        <v>0.11786302944177</v>
+        <v>0.1177775131860914</v>
       </c>
       <c r="J3">
-        <v>0.11786302944177</v>
+        <v>0.1254491357467524</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.2947813967195</v>
+        <v>1.419989</v>
       </c>
       <c r="N3">
-        <v>1.2947813967195</v>
+        <v>4.259967</v>
       </c>
       <c r="O3">
-        <v>0.2500174704903248</v>
+        <v>0.2089191820780086</v>
       </c>
       <c r="P3">
-        <v>0.2500174704903248</v>
+        <v>0.2156680618034525</v>
       </c>
       <c r="Q3">
-        <v>3.436987516190178</v>
+        <v>4.026341416456333</v>
       </c>
       <c r="R3">
-        <v>3.436987516190178</v>
+        <v>36.237072748107</v>
       </c>
       <c r="S3">
-        <v>0.02946781648535801</v>
+        <v>0.0246059817220201</v>
       </c>
       <c r="T3">
-        <v>0.02946781648535801</v>
+        <v>0.02705537196142031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.65449250730528</v>
+        <v>2.835473666666667</v>
       </c>
       <c r="H4">
-        <v>2.65449250730528</v>
+        <v>8.506421</v>
       </c>
       <c r="I4">
-        <v>0.11786302944177</v>
+        <v>0.1177775131860914</v>
       </c>
       <c r="J4">
-        <v>0.11786302944177</v>
+        <v>0.1254491357467524</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.15015948989585</v>
+        <v>2.506929333333333</v>
       </c>
       <c r="N4">
-        <v>1.15015948989585</v>
+        <v>7.520788</v>
       </c>
       <c r="O4">
-        <v>0.2220915183464745</v>
+        <v>0.3688378049741002</v>
       </c>
       <c r="P4">
-        <v>0.2220915183464745</v>
+        <v>0.3807526610404879</v>
       </c>
       <c r="Q4">
-        <v>3.053089748134597</v>
+        <v>7.108332108860889</v>
       </c>
       <c r="R4">
-        <v>3.053089748134597</v>
+        <v>63.97498897974799</v>
       </c>
       <c r="S4">
-        <v>0.02617637916563792</v>
+        <v>0.04344079943886611</v>
       </c>
       <c r="T4">
-        <v>0.02617637916563792</v>
+        <v>0.04776509226080537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.65449250730528</v>
+        <v>2.835473666666667</v>
       </c>
       <c r="H5">
-        <v>2.65449250730528</v>
+        <v>8.506421</v>
       </c>
       <c r="I5">
-        <v>0.11786302944177</v>
+        <v>0.1177775131860914</v>
       </c>
       <c r="J5">
-        <v>0.11786302944177</v>
+        <v>0.1254491357467524</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.30875513569103</v>
+        <v>1.30908</v>
       </c>
       <c r="N5">
-        <v>1.30875513569103</v>
+        <v>3.92724</v>
       </c>
       <c r="O5">
-        <v>0.2527157474966254</v>
+        <v>0.1926014376693619</v>
       </c>
       <c r="P5">
-        <v>0.2527157474966254</v>
+        <v>0.1988231925357617</v>
       </c>
       <c r="Q5">
-        <v>3.474080701589144</v>
+        <v>3.71186186756</v>
       </c>
       <c r="R5">
-        <v>3.474080701589144</v>
+        <v>33.40675680804</v>
       </c>
       <c r="S5">
-        <v>0.02978584358759367</v>
+        <v>0.02268411836476344</v>
       </c>
       <c r="T5">
-        <v>0.02978584358759367</v>
+        <v>0.02494219767002146</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.65449250730528</v>
+        <v>2.835473666666667</v>
       </c>
       <c r="H6">
-        <v>2.65449250730528</v>
+        <v>8.506421</v>
       </c>
       <c r="I6">
-        <v>0.11786302944177</v>
+        <v>0.1177775131860914</v>
       </c>
       <c r="J6">
-        <v>0.11786302944177</v>
+        <v>0.1254491357467524</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.631528384447603</v>
+        <v>0.6380779999999999</v>
       </c>
       <c r="N6">
-        <v>0.631528384447603</v>
+        <v>1.276156</v>
       </c>
       <c r="O6">
-        <v>0.1219457814442455</v>
+        <v>0.09387870882237229</v>
       </c>
       <c r="P6">
-        <v>0.1219457814442455</v>
+        <v>0.06460756411466258</v>
       </c>
       <c r="Q6">
-        <v>1.67638736466677</v>
+        <v>1.809253366279333</v>
       </c>
       <c r="R6">
-        <v>1.67638736466677</v>
+        <v>10.855520197676</v>
       </c>
       <c r="S6">
-        <v>0.01437289922866275</v>
+        <v>0.01105680086622019</v>
       </c>
       <c r="T6">
-        <v>0.01437289922866275</v>
+        <v>0.008104963080887314</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.73901064430296</v>
+        <v>6.985602333333333</v>
       </c>
       <c r="H7">
-        <v>6.73901064430296</v>
+        <v>20.956807</v>
       </c>
       <c r="I7">
-        <v>0.2992211158223227</v>
+        <v>0.2901620567311298</v>
       </c>
       <c r="J7">
-        <v>0.2992211158223227</v>
+        <v>0.3090622161966227</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.793539277960625</v>
+        <v>0.9227576666666666</v>
       </c>
       <c r="N7">
-        <v>0.793539277960625</v>
+        <v>2.768273</v>
       </c>
       <c r="O7">
-        <v>0.15322948222233</v>
+        <v>0.1357628664561569</v>
       </c>
       <c r="P7">
-        <v>0.15322948222233</v>
+        <v>0.1401485205056351</v>
       </c>
       <c r="Q7">
-        <v>5.347669640849137</v>
+        <v>6.446018109367889</v>
       </c>
       <c r="R7">
-        <v>5.347669640849137</v>
+        <v>58.014162984311</v>
       </c>
       <c r="S7">
-        <v>0.04584949664744233</v>
+        <v>0.03939323255863218</v>
       </c>
       <c r="T7">
-        <v>0.04584949664744233</v>
+        <v>0.04331461234414942</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.73901064430296</v>
+        <v>6.985602333333333</v>
       </c>
       <c r="H8">
-        <v>6.73901064430296</v>
+        <v>20.956807</v>
       </c>
       <c r="I8">
-        <v>0.2992211158223227</v>
+        <v>0.2901620567311298</v>
       </c>
       <c r="J8">
-        <v>0.2992211158223227</v>
+        <v>0.3090622161966227</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.2947813967195</v>
+        <v>1.419989</v>
       </c>
       <c r="N8">
-        <v>1.2947813967195</v>
+        <v>4.259967</v>
       </c>
       <c r="O8">
-        <v>0.2500174704903248</v>
+        <v>0.2089191820780086</v>
       </c>
       <c r="P8">
-        <v>0.2500174704903248</v>
+        <v>0.2156680618034525</v>
       </c>
       <c r="Q8">
-        <v>8.725545614538165</v>
+        <v>9.919478471707667</v>
       </c>
       <c r="R8">
-        <v>8.725545614538165</v>
+        <v>89.27530624536899</v>
       </c>
       <c r="S8">
-        <v>0.07481050649518962</v>
+        <v>0.06062041956234037</v>
       </c>
       <c r="T8">
-        <v>0.07481050649518962</v>
+        <v>0.06665484914380525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.73901064430296</v>
+        <v>6.985602333333333</v>
       </c>
       <c r="H9">
-        <v>6.73901064430296</v>
+        <v>20.956807</v>
       </c>
       <c r="I9">
-        <v>0.2992211158223227</v>
+        <v>0.2901620567311298</v>
       </c>
       <c r="J9">
-        <v>0.2992211158223227</v>
+        <v>0.3090622161966227</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.15015948989585</v>
+        <v>2.506929333333333</v>
       </c>
       <c r="N9">
-        <v>1.15015948989585</v>
+        <v>7.520788</v>
       </c>
       <c r="O9">
-        <v>0.2220915183464745</v>
+        <v>0.3688378049741002</v>
       </c>
       <c r="P9">
-        <v>0.2220915183464745</v>
+        <v>0.3807526610404879</v>
       </c>
       <c r="Q9">
-        <v>7.750937045054196</v>
+        <v>17.51241140043511</v>
       </c>
       <c r="R9">
-        <v>7.750937045054196</v>
+        <v>157.611702603916</v>
       </c>
       <c r="S9">
-        <v>0.06645447193430594</v>
+        <v>0.1070227360914802</v>
       </c>
       <c r="T9">
-        <v>0.06645447193430594</v>
+        <v>0.1176762612439347</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.73901064430296</v>
+        <v>6.985602333333333</v>
       </c>
       <c r="H10">
-        <v>6.73901064430296</v>
+        <v>20.956807</v>
       </c>
       <c r="I10">
-        <v>0.2992211158223227</v>
+        <v>0.2901620567311298</v>
       </c>
       <c r="J10">
-        <v>0.2992211158223227</v>
+        <v>0.3090622161966227</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.30875513569103</v>
+        <v>1.30908</v>
       </c>
       <c r="N10">
-        <v>1.30875513569103</v>
+        <v>3.92724</v>
       </c>
       <c r="O10">
-        <v>0.2527157474966254</v>
+        <v>0.1926014376693619</v>
       </c>
       <c r="P10">
-        <v>0.2527157474966254</v>
+        <v>0.1988231925357617</v>
       </c>
       <c r="Q10">
-        <v>8.819714790208016</v>
+        <v>9.14471230252</v>
       </c>
       <c r="R10">
-        <v>8.819714790208016</v>
+        <v>82.30241072268001</v>
       </c>
       <c r="S10">
-        <v>0.07561788795181261</v>
+        <v>0.05588562928351455</v>
       </c>
       <c r="T10">
-        <v>0.07561788795181261</v>
+        <v>0.06144873651639032</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.73901064430296</v>
+        <v>6.985602333333333</v>
       </c>
       <c r="H11">
-        <v>6.73901064430296</v>
+        <v>20.956807</v>
       </c>
       <c r="I11">
-        <v>0.2992211158223227</v>
+        <v>0.2901620567311298</v>
       </c>
       <c r="J11">
-        <v>0.2992211158223227</v>
+        <v>0.3090622161966227</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.631528384447603</v>
+        <v>0.6380779999999999</v>
       </c>
       <c r="N11">
-        <v>0.631528384447603</v>
+        <v>1.276156</v>
       </c>
       <c r="O11">
-        <v>0.1219457814442455</v>
+        <v>0.09387870882237229</v>
       </c>
       <c r="P11">
-        <v>0.1219457814442455</v>
+        <v>0.06460756411466258</v>
       </c>
       <c r="Q11">
-        <v>4.255876504971848</v>
+        <v>4.457359165648667</v>
       </c>
       <c r="R11">
-        <v>4.255876504971848</v>
+        <v>26.744154993892</v>
       </c>
       <c r="S11">
-        <v>0.03648875279357223</v>
+        <v>0.0272400392351624</v>
       </c>
       <c r="T11">
-        <v>0.03648875279357223</v>
+        <v>0.01996775694834301</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.9568525313809</v>
+        <v>5.277146666666667</v>
       </c>
       <c r="H12">
-        <v>4.9568525313809</v>
+        <v>15.83144</v>
       </c>
       <c r="I12">
-        <v>0.220090904094411</v>
+        <v>0.2191976664868592</v>
       </c>
       <c r="J12">
-        <v>0.220090904094411</v>
+        <v>0.2334754493842435</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.793539277960625</v>
+        <v>0.9227576666666666</v>
       </c>
       <c r="N12">
-        <v>0.793539277960625</v>
+        <v>2.768273</v>
       </c>
       <c r="O12">
-        <v>0.15322948222233</v>
+        <v>0.1357628664561569</v>
       </c>
       <c r="P12">
-        <v>0.15322948222233</v>
+        <v>0.1401485205056351</v>
       </c>
       <c r="Q12">
-        <v>3.933457178709295</v>
+        <v>4.869527544791111</v>
       </c>
       <c r="R12">
-        <v>3.933457178709295</v>
+        <v>43.82574790312</v>
       </c>
       <c r="S12">
-        <v>0.03372441527623108</v>
+        <v>0.02975890352275668</v>
       </c>
       <c r="T12">
-        <v>0.03372441527623108</v>
+        <v>0.03272123880559003</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.9568525313809</v>
+        <v>5.277146666666667</v>
       </c>
       <c r="H13">
-        <v>4.9568525313809</v>
+        <v>15.83144</v>
       </c>
       <c r="I13">
-        <v>0.220090904094411</v>
+        <v>0.2191976664868592</v>
       </c>
       <c r="J13">
-        <v>0.220090904094411</v>
+        <v>0.2334754493842435</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.2947813967195</v>
+        <v>1.419989</v>
       </c>
       <c r="N13">
-        <v>1.2947813967195</v>
+        <v>4.259967</v>
       </c>
       <c r="O13">
-        <v>0.2500174704903248</v>
+        <v>0.2089191820780086</v>
       </c>
       <c r="P13">
-        <v>0.2500174704903248</v>
+        <v>0.2156680618034525</v>
       </c>
       <c r="Q13">
-        <v>6.418040443913951</v>
+        <v>7.493490218053333</v>
       </c>
       <c r="R13">
-        <v>6.418040443913951</v>
+        <v>67.44141196247999</v>
       </c>
       <c r="S13">
-        <v>0.05502657111961331</v>
+        <v>0.04579459719584276</v>
       </c>
       <c r="T13">
-        <v>0.05502657111961331</v>
+        <v>0.05035319764738989</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.9568525313809</v>
+        <v>5.277146666666667</v>
       </c>
       <c r="H14">
-        <v>4.9568525313809</v>
+        <v>15.83144</v>
       </c>
       <c r="I14">
-        <v>0.220090904094411</v>
+        <v>0.2191976664868592</v>
       </c>
       <c r="J14">
-        <v>0.220090904094411</v>
+        <v>0.2334754493842435</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.15015948989585</v>
+        <v>2.506929333333333</v>
       </c>
       <c r="N14">
-        <v>1.15015948989585</v>
+        <v>7.520788</v>
       </c>
       <c r="O14">
-        <v>0.2220915183464745</v>
+        <v>0.3688378049741002</v>
       </c>
       <c r="P14">
-        <v>0.2220915183464745</v>
+        <v>0.3807526610404879</v>
       </c>
       <c r="Q14">
-        <v>5.701170978982009</v>
+        <v>13.22943377496889</v>
       </c>
       <c r="R14">
-        <v>5.701170978982009</v>
+        <v>119.06490397472</v>
       </c>
       <c r="S14">
-        <v>0.04888032306457604</v>
+        <v>0.08084838616245804</v>
       </c>
       <c r="T14">
-        <v>0.04888032306457604</v>
+        <v>0.08889639864067447</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.9568525313809</v>
+        <v>5.277146666666667</v>
       </c>
       <c r="H15">
-        <v>4.9568525313809</v>
+        <v>15.83144</v>
       </c>
       <c r="I15">
-        <v>0.220090904094411</v>
+        <v>0.2191976664868592</v>
       </c>
       <c r="J15">
-        <v>0.220090904094411</v>
+        <v>0.2334754493842435</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.30875513569103</v>
+        <v>1.30908</v>
       </c>
       <c r="N15">
-        <v>1.30875513569103</v>
+        <v>3.92724</v>
       </c>
       <c r="O15">
-        <v>0.2527157474966254</v>
+        <v>0.1926014376693619</v>
       </c>
       <c r="P15">
-        <v>0.2527157474966254</v>
+        <v>0.1988231925357617</v>
       </c>
       <c r="Q15">
-        <v>6.487306207307835</v>
+        <v>6.908207158400001</v>
       </c>
       <c r="R15">
-        <v>6.487306207307835</v>
+        <v>62.17386442560001</v>
       </c>
       <c r="S15">
-        <v>0.05562043734542717</v>
+        <v>0.04221778569913841</v>
       </c>
       <c r="T15">
-        <v>0.05562043734542717</v>
+        <v>0.04642033422529693</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.9568525313809</v>
+        <v>5.277146666666667</v>
       </c>
       <c r="H16">
-        <v>4.9568525313809</v>
+        <v>15.83144</v>
       </c>
       <c r="I16">
-        <v>0.220090904094411</v>
+        <v>0.2191976664868592</v>
       </c>
       <c r="J16">
-        <v>0.220090904094411</v>
+        <v>0.2334754493842435</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.631528384447603</v>
+        <v>0.6380779999999999</v>
       </c>
       <c r="N16">
-        <v>0.631528384447603</v>
+        <v>1.276156</v>
       </c>
       <c r="O16">
-        <v>0.1219457814442455</v>
+        <v>0.09387870882237229</v>
       </c>
       <c r="P16">
-        <v>0.1219457814442455</v>
+        <v>0.06460756411466258</v>
       </c>
       <c r="Q16">
-        <v>3.130393071087991</v>
+        <v>3.367231190773333</v>
       </c>
       <c r="R16">
-        <v>3.130393071087991</v>
+        <v>20.20338714464</v>
       </c>
       <c r="S16">
-        <v>0.02683915728856344</v>
+        <v>0.02057799390666333</v>
       </c>
       <c r="T16">
-        <v>0.02683915728856344</v>
+        <v>0.01508428006529217</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.15198553113226</v>
+        <v>4.559845333333333</v>
       </c>
       <c r="H17">
-        <v>4.15198553113226</v>
+        <v>13.679536</v>
       </c>
       <c r="I17">
-        <v>0.1843537292159947</v>
+        <v>0.1894030088117685</v>
       </c>
       <c r="J17">
-        <v>0.1843537292159947</v>
+        <v>0.2017400700737227</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.793539277960625</v>
+        <v>0.9227576666666666</v>
       </c>
       <c r="N17">
-        <v>0.793539277960625</v>
+        <v>2.768273</v>
       </c>
       <c r="O17">
-        <v>0.15322948222233</v>
+        <v>0.1357628664561569</v>
       </c>
       <c r="P17">
-        <v>0.15322948222233</v>
+        <v>0.1401485205056351</v>
       </c>
       <c r="Q17">
-        <v>3.294763600477655</v>
+        <v>4.207632240147555</v>
       </c>
       <c r="R17">
-        <v>3.294763600477655</v>
+        <v>37.86869016132799</v>
       </c>
       <c r="S17">
-        <v>0.02824842647352249</v>
+        <v>0.02571389539170642</v>
       </c>
       <c r="T17">
-        <v>0.02824842647352249</v>
+        <v>0.0282735723475354</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.15198553113226</v>
+        <v>4.559845333333333</v>
       </c>
       <c r="H18">
-        <v>4.15198553113226</v>
+        <v>13.679536</v>
       </c>
       <c r="I18">
-        <v>0.1843537292159947</v>
+        <v>0.1894030088117685</v>
       </c>
       <c r="J18">
-        <v>0.1843537292159947</v>
+        <v>0.2017400700737227</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.2947813967195</v>
+        <v>1.419989</v>
       </c>
       <c r="N18">
-        <v>1.2947813967195</v>
+        <v>4.259967</v>
       </c>
       <c r="O18">
-        <v>0.2500174704903248</v>
+        <v>0.2089191820780086</v>
       </c>
       <c r="P18">
-        <v>0.2500174704903248</v>
+        <v>0.2156680618034525</v>
       </c>
       <c r="Q18">
-        <v>5.375913625158582</v>
+        <v>6.474930215034665</v>
       </c>
       <c r="R18">
-        <v>5.375913625158582</v>
+        <v>58.27437193531199</v>
       </c>
       <c r="S18">
-        <v>0.04609165305404129</v>
+        <v>0.03956992168406853</v>
       </c>
       <c r="T18">
-        <v>0.04609165305404129</v>
+        <v>0.04350888990089248</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.15198553113226</v>
+        <v>4.559845333333333</v>
       </c>
       <c r="H19">
-        <v>4.15198553113226</v>
+        <v>13.679536</v>
       </c>
       <c r="I19">
-        <v>0.1843537292159947</v>
+        <v>0.1894030088117685</v>
       </c>
       <c r="J19">
-        <v>0.1843537292159947</v>
+        <v>0.2017400700737227</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.15015948989585</v>
+        <v>2.506929333333333</v>
       </c>
       <c r="N19">
-        <v>1.15015948989585</v>
+        <v>7.520788</v>
       </c>
       <c r="O19">
-        <v>0.2220915183464745</v>
+        <v>0.3688378049741002</v>
       </c>
       <c r="P19">
-        <v>0.2220915183464745</v>
+        <v>0.3807526610404879</v>
       </c>
       <c r="Q19">
-        <v>4.77544556054203</v>
+        <v>11.43121002159644</v>
       </c>
       <c r="R19">
-        <v>4.77544556054203</v>
+        <v>102.880890194368</v>
       </c>
       <c r="S19">
-        <v>0.04094339963441508</v>
+        <v>0.06985899002562283</v>
       </c>
       <c r="T19">
-        <v>0.04094339963441508</v>
+        <v>0.07681306851906443</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.15198553113226</v>
+        <v>4.559845333333333</v>
       </c>
       <c r="H20">
-        <v>4.15198553113226</v>
+        <v>13.679536</v>
       </c>
       <c r="I20">
-        <v>0.1843537292159947</v>
+        <v>0.1894030088117685</v>
       </c>
       <c r="J20">
-        <v>0.1843537292159947</v>
+        <v>0.2017400700737227</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.30875513569103</v>
+        <v>1.30908</v>
       </c>
       <c r="N20">
-        <v>1.30875513569103</v>
+        <v>3.92724</v>
       </c>
       <c r="O20">
-        <v>0.2527157474966254</v>
+        <v>0.1926014376693619</v>
       </c>
       <c r="P20">
-        <v>0.2527157474966254</v>
+        <v>0.1988231925357617</v>
       </c>
       <c r="Q20">
-        <v>5.433932387184194</v>
+        <v>5.969202328959999</v>
       </c>
       <c r="R20">
-        <v>5.433932387184194</v>
+        <v>53.72282096064</v>
       </c>
       <c r="S20">
-        <v>0.04658909048261058</v>
+        <v>0.03647929179604944</v>
       </c>
       <c r="T20">
-        <v>0.04658909048261058</v>
+        <v>0.04011060479444583</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.15198553113226</v>
+        <v>4.559845333333333</v>
       </c>
       <c r="H21">
-        <v>4.15198553113226</v>
+        <v>13.679536</v>
       </c>
       <c r="I21">
-        <v>0.1843537292159947</v>
+        <v>0.1894030088117685</v>
       </c>
       <c r="J21">
-        <v>0.1843537292159947</v>
+        <v>0.2017400700737227</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.631528384447603</v>
+        <v>0.6380779999999999</v>
       </c>
       <c r="N21">
-        <v>0.631528384447603</v>
+        <v>1.276156</v>
       </c>
       <c r="O21">
-        <v>0.1219457814442455</v>
+        <v>0.09387870882237229</v>
       </c>
       <c r="P21">
-        <v>0.1219457814442455</v>
+        <v>0.06460756411466258</v>
       </c>
       <c r="Q21">
-        <v>2.622096714725779</v>
+        <v>2.909536990602666</v>
       </c>
       <c r="R21">
-        <v>2.622096714725779</v>
+        <v>17.45722194361599</v>
       </c>
       <c r="S21">
-        <v>0.0224811595714053</v>
+        <v>0.01778090991432122</v>
       </c>
       <c r="T21">
-        <v>0.0224811595714053</v>
+        <v>0.01303393451178456</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.01950062108043</v>
+        <v>4.4167625</v>
       </c>
       <c r="H22">
-        <v>4.01950062108043</v>
+        <v>8.833525</v>
       </c>
       <c r="I22">
-        <v>0.1784712214255015</v>
+        <v>0.183459754784151</v>
       </c>
       <c r="J22">
-        <v>0.1784712214255015</v>
+        <v>0.1302731285986587</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.793539277960625</v>
+        <v>0.9227576666666666</v>
       </c>
       <c r="N22">
-        <v>0.793539277960625</v>
+        <v>2.768273</v>
       </c>
       <c r="O22">
-        <v>0.15322948222233</v>
+        <v>0.1357628664561569</v>
       </c>
       <c r="P22">
-        <v>0.15322948222233</v>
+        <v>0.1401485205056351</v>
       </c>
       <c r="Q22">
-        <v>3.189631620614448</v>
+        <v>4.075601458720833</v>
       </c>
       <c r="R22">
-        <v>3.189631620614448</v>
+        <v>24.453608752325</v>
       </c>
       <c r="S22">
-        <v>0.0273470528506164</v>
+        <v>0.02490702218883998</v>
       </c>
       <c r="T22">
-        <v>0.0273470528506164</v>
+        <v>0.01825758623474237</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.01950062108043</v>
+        <v>4.4167625</v>
       </c>
       <c r="H23">
-        <v>4.01950062108043</v>
+        <v>8.833525</v>
       </c>
       <c r="I23">
-        <v>0.1784712214255015</v>
+        <v>0.183459754784151</v>
       </c>
       <c r="J23">
-        <v>0.1784712214255015</v>
+        <v>0.1302731285986587</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.2947813967195</v>
+        <v>1.419989</v>
       </c>
       <c r="N23">
-        <v>1.2947813967195</v>
+        <v>4.259967</v>
       </c>
       <c r="O23">
-        <v>0.2500174704903248</v>
+        <v>0.2089191820780086</v>
       </c>
       <c r="P23">
-        <v>0.2500174704903248</v>
+        <v>0.2156680618034525</v>
       </c>
       <c r="Q23">
-        <v>5.204374628277416</v>
+        <v>6.271754165612499</v>
       </c>
       <c r="R23">
-        <v>5.204374628277416</v>
+        <v>37.630524993675</v>
       </c>
       <c r="S23">
-        <v>0.04462092333612255</v>
+        <v>0.03832826191373687</v>
       </c>
       <c r="T23">
-        <v>0.04462092333612255</v>
+        <v>0.02809575314994465</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.01950062108043</v>
+        <v>4.4167625</v>
       </c>
       <c r="H24">
-        <v>4.01950062108043</v>
+        <v>8.833525</v>
       </c>
       <c r="I24">
-        <v>0.1784712214255015</v>
+        <v>0.183459754784151</v>
       </c>
       <c r="J24">
-        <v>0.1784712214255015</v>
+        <v>0.1302731285986587</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.15015948989585</v>
+        <v>2.506929333333333</v>
       </c>
       <c r="N24">
-        <v>1.15015948989585</v>
+        <v>7.520788</v>
       </c>
       <c r="O24">
-        <v>0.2220915183464745</v>
+        <v>0.3688378049741002</v>
       </c>
       <c r="P24">
-        <v>0.2220915183464745</v>
+        <v>0.3807526610404879</v>
       </c>
       <c r="Q24">
-        <v>4.62306678397792</v>
+        <v>11.07251146961667</v>
       </c>
       <c r="R24">
-        <v>4.62306678397792</v>
+        <v>66.4350688177</v>
       </c>
       <c r="S24">
-        <v>0.03963694454753949</v>
+        <v>0.06766689325567293</v>
       </c>
       <c r="T24">
-        <v>0.03963694454753949</v>
+        <v>0.049601840376009</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.01950062108043</v>
+        <v>4.4167625</v>
       </c>
       <c r="H25">
-        <v>4.01950062108043</v>
+        <v>8.833525</v>
       </c>
       <c r="I25">
-        <v>0.1784712214255015</v>
+        <v>0.183459754784151</v>
       </c>
       <c r="J25">
-        <v>0.1784712214255015</v>
+        <v>0.1302731285986587</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.30875513569103</v>
+        <v>1.30908</v>
       </c>
       <c r="N25">
-        <v>1.30875513569103</v>
+        <v>3.92724</v>
       </c>
       <c r="O25">
-        <v>0.2527157474966254</v>
+        <v>0.1926014376693619</v>
       </c>
       <c r="P25">
-        <v>0.2527157474966254</v>
+        <v>0.1988231925357617</v>
       </c>
       <c r="Q25">
-        <v>5.260542080752297</v>
+        <v>5.7818954535</v>
       </c>
       <c r="R25">
-        <v>5.260542080752297</v>
+        <v>34.691372721</v>
       </c>
       <c r="S25">
-        <v>0.04510248812918137</v>
+        <v>0.03533461252589609</v>
       </c>
       <c r="T25">
-        <v>0.04510248812918137</v>
+        <v>0.02590131932960717</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.01950062108043</v>
+        <v>4.4167625</v>
       </c>
       <c r="H26">
-        <v>4.01950062108043</v>
+        <v>8.833525</v>
       </c>
       <c r="I26">
-        <v>0.1784712214255015</v>
+        <v>0.183459754784151</v>
       </c>
       <c r="J26">
-        <v>0.1784712214255015</v>
+        <v>0.1302731285986587</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.631528384447603</v>
+        <v>0.6380779999999999</v>
       </c>
       <c r="N26">
-        <v>0.631528384447603</v>
+        <v>1.276156</v>
       </c>
       <c r="O26">
-        <v>0.1219457814442455</v>
+        <v>0.09387870882237229</v>
       </c>
       <c r="P26">
-        <v>0.1219457814442455</v>
+        <v>0.06460756411466258</v>
       </c>
       <c r="Q26">
-        <v>2.538428733517061</v>
+        <v>2.818238982475</v>
       </c>
       <c r="R26">
-        <v>2.538428733517061</v>
+        <v>11.2729559299</v>
       </c>
       <c r="S26">
-        <v>0.02176381256204175</v>
+        <v>0.01722296490000514</v>
       </c>
       <c r="T26">
-        <v>0.02176381256204175</v>
+        <v>0.008416629508355526</v>
       </c>
     </row>
   </sheetData>
